--- a/assets/lines/info.xlsx
+++ b/assets/lines/info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atish Ghosh\Projects\Android\kolkatametro\assets\lines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atish Ghosh\Projects\Android\KolkataMetro\assets\lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA2D91-9171-48C7-9691-953EEC2220E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E3DAF-6CC4-4E30-A947-0890676EB332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -767,7 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E1C795-24FD-4B4E-84D7-10C715DA97DE}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/assets/lines/info.xlsx
+++ b/assets/lines/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atish Ghosh\Projects\Android\KolkataMetro\assets\lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E3DAF-6CC4-4E30-A947-0890676EB332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCF72B-DDB3-483A-88B4-3E5844207988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>KDSW</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Kalighat</t>
   </si>
   <si>
-    <t>Rabindra Sarobar</t>
-  </si>
-  <si>
     <t>Mahanayak Uttam Kumar</t>
   </si>
   <si>
@@ -224,16 +221,147 @@
   </si>
   <si>
     <t>Kavi Subhash</t>
+  </si>
+  <si>
+    <t>New Garia</t>
+  </si>
+  <si>
+    <t>Briji</t>
+  </si>
+  <si>
+    <t>Garia Bazar</t>
+  </si>
+  <si>
+    <t>Naktala</t>
+  </si>
+  <si>
+    <t>Bansdroni</t>
+  </si>
+  <si>
+    <t>Kudghat</t>
+  </si>
+  <si>
+    <t>Tollygunge</t>
+  </si>
+  <si>
+    <t>Rabindra Sarovar</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/pwxuf8UsbQdWrAFb7</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/EPs6scKyPNj71WCf6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/c2fjzuYAe4kSTHav6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/zW88RJMS1TD7nGgi8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/kp6ka6KoDwcb8ExR8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/R7tjRwf7yHsXE7Sn7</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/rRuL7QjUzQcjmnAG6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/M1fsGtDLihGarKTy9</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/J9BWeSkQizYVVaQZ8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/MEZxTXTibBSt6gVi8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/phAX7iJzpffwAjJZ8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/4NrT42rerZrbZ3Jh6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/dcZmj8DvqFrBsgzT8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/vStCvzuuMw8gaGzV9</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/NcNC1QBN7pVVrWMU6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/dhFSTtskqWCDL3PT9</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/PrtYEJdAVDU7Rs8t8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/vAoFmuaJPJBaQsK69</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/keuQJwLkZfCEV9aw7</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/7Y9PHepgZmPmxz7v8</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/dfdACoJ5Nx3HLGyQ6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/MRLyBmfpZhNodSc2A</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/eFnMf2jXyi42KGhS6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/bQib4yje4b3ATsPk7</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/mdDcF9oEKBWddhWs5</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/LkN2ZmqoNs5ww6WY9</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/DAKyHY2R5MC3ksdh6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/UQgkzqgb63SpfsZ39</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/57Lskg3VRmteyGH37</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/dnMXGCru3teoT5Sj9</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/aitjYet45kNYpcnQ6</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/jXy6pZw4mEqBxX8YA</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/a3vazswkhLEQkGk88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,13 +384,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,300 +675,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>22.653829000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <v>88.363715299999996</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>22.653643129999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>88.378533110000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>22.639849550000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88.394112750000005</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>22.621460970000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>88.392838859999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>22.605972139999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88.38637086</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>22.60130096</v>
+      </c>
+      <c r="E7" s="2">
+        <v>88.372605870000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>22.596021669999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>88.365337719999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>22.587141169999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>88.363109159999993</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>22.580696840000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>88.361398480000005</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>22.57251063</v>
+      </c>
+      <c r="E11" s="2">
+        <v>88.358309950000006</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>22.566798129999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>88.353822280000003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>22.56261632</v>
+      </c>
+      <c r="E13" s="2">
+        <v>88.350676050000004</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>22.55443103</v>
+      </c>
+      <c r="E14" s="2">
+        <v>88.349861709999999</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>22.549318530000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>88.348549140000003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>22.541222269999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>88.347291929999997</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>22.532981710000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>88.34576989</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>22.524264599999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>88.346510019999997</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <v>22.5166608</v>
+      </c>
+      <c r="E19" s="2">
+        <v>88.346021489999998</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>22.507880100000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>88.345560899999995</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2">
+        <v>22.494679170000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>88.345212869999997</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2">
+        <v>22.48093794</v>
+      </c>
+      <c r="E22" s="2">
+        <v>88.345979959999994</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22.473486860000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>88.360823589999995</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22.469430030000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>88.369941470000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2">
+        <v>22.464250159999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>88.380677160000005</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2">
+        <v>22.466013310000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>88.391683610000001</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
       </c>
+      <c r="D27" s="2">
+        <v>22.4721689</v>
+      </c>
+      <c r="E27" s="2">
+        <v>88.397884599999998</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{EA1B6ADE-E825-4F6C-A85A-7778E0CEE77A}"/>
+    <hyperlink ref="F26" r:id="rId2" xr:uid="{551ADE8B-92E7-436E-9000-D565B69DCDC4}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{0A62C7C3-DF08-49FC-8F17-121BC022291C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E1C795-24FD-4B4E-84D7-10C715DA97DE}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <v>22.580963870000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>88.429271740000004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>22.586465610000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>88.421443030000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>22.590526260000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88.415598329999995</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <v>22.587144680000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>88.407976829999996</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>22.579993859999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>88.401289509999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>22.573172199999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>88.403125810000006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
+      <c r="D8" s="2">
+        <v>22.57219959</v>
+      </c>
+      <c r="E8" s="2">
+        <v>88.389406070000007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>